--- a/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D371A-6764-4C4D-A74E-0CBCF36106E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E776D-5F74-466B-AFBA-EF06E67319C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19410" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38780" yWindow="420" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M28" sqref="M28"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,13 +1327,13 @@
         <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H3">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I3">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1431,13 +1431,13 @@
         <v>500</v>
       </c>
       <c r="G4" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H4">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I4">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1536,13 +1536,13 @@
         <v>500</v>
       </c>
       <c r="G5" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H5">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I5">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1641,13 +1641,13 @@
         <v>500</v>
       </c>
       <c r="G6" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H6">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I6">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" ref="U6:U11" si="7">12-2</f>
+        <f t="shared" ref="U6" si="7">12-2</f>
         <v>10</v>
       </c>
       <c r="V6">
@@ -1746,13 +1746,13 @@
         <v>500</v>
       </c>
       <c r="G7" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H7">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I7">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" ref="U7:U11" si="8">7-1</f>
+        <f t="shared" ref="U7" si="8">7-1</f>
         <v>6</v>
       </c>
       <c r="V7">
@@ -1851,13 +1851,13 @@
         <v>500</v>
       </c>
       <c r="G8" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H8">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I8">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" ref="U8:U11" si="13">12-2</f>
+        <f t="shared" ref="U8" si="13">12-2</f>
         <v>10</v>
       </c>
       <c r="V8">
@@ -1956,13 +1956,13 @@
         <v>500</v>
       </c>
       <c r="G9" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H9">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I9">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" ref="U9:U11" si="14">7-1</f>
+        <f t="shared" ref="U9" si="14">7-1</f>
         <v>6</v>
       </c>
       <c r="V9">
@@ -2061,13 +2061,13 @@
         <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H10">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I10">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" ref="U10:U11" si="15">12-2</f>
+        <f t="shared" ref="U10" si="15">12-2</f>
         <v>10</v>
       </c>
       <c r="V10">
@@ -2166,13 +2166,13 @@
         <v>500</v>
       </c>
       <c r="G11" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H11">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I11">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2372,13 +2372,13 @@
         <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H13">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I13">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2476,13 +2476,13 @@
         <v>500</v>
       </c>
       <c r="G14" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H14">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I14">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2580,13 +2580,13 @@
         <v>500</v>
       </c>
       <c r="G15" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H15">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I15">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2685,13 +2685,13 @@
         <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H16">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I16">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2789,13 +2789,13 @@
         <v>500</v>
       </c>
       <c r="G17" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H17">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I17">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2894,13 +2894,13 @@
         <v>500</v>
       </c>
       <c r="G18" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H18">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I18">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2998,13 +2998,13 @@
         <v>500</v>
       </c>
       <c r="G19" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H19">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I19">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3203,13 +3203,13 @@
         <v>500</v>
       </c>
       <c r="G21" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H21">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I21">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3307,13 +3307,13 @@
         <v>500</v>
       </c>
       <c r="G22" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H22">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I22">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3411,13 +3411,13 @@
         <v>500</v>
       </c>
       <c r="G23" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H23">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I23">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3516,13 +3516,13 @@
         <v>500</v>
       </c>
       <c r="G24" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H24">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I24">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3620,13 +3620,13 @@
         <v>500</v>
       </c>
       <c r="G25" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H25">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I25">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3725,13 +3725,13 @@
         <v>500</v>
       </c>
       <c r="G26" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H26">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I26">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3829,13 +3829,13 @@
         <v>500</v>
       </c>
       <c r="G27" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H27">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I27">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4034,13 +4034,13 @@
         <v>500</v>
       </c>
       <c r="G29" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H29">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I29">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4138,13 +4138,13 @@
         <v>500</v>
       </c>
       <c r="G30" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H30">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I30">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4243,13 +4243,13 @@
         <v>500</v>
       </c>
       <c r="G31" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H31">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I31">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4347,13 +4347,13 @@
         <v>500</v>
       </c>
       <c r="G32" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H32">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I32">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4451,13 +4451,13 @@
         <v>500</v>
       </c>
       <c r="G33" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H33">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I33">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4555,13 +4555,13 @@
         <v>500</v>
       </c>
       <c r="G34" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H34">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I34">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4660,13 +4660,13 @@
         <v>500</v>
       </c>
       <c r="G35" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H35">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I35">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4764,13 +4764,13 @@
         <v>500</v>
       </c>
       <c r="G36" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H36">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I36">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4868,13 +4868,13 @@
         <v>500</v>
       </c>
       <c r="G37" s="1">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="H37">
-        <v>1300</v>
+        <v>1576</v>
       </c>
       <c r="I37">
-        <v>1445</v>
+        <v>1870</v>
       </c>
       <c r="J37">
         <v>1</v>

--- a/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0E776D-5F74-466B-AFBA-EF06E67319C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE7BED-C3E2-414E-830A-D76627148B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="420" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1095,9 +1095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2:I37"/>
+      <selection pane="topRight" activeCell="AM19" sqref="AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,11 +1341,13 @@
       <c r="K3">
         <v>0.215</v>
       </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>1.5399999999999999E-3</v>
+      <c r="L3" s="12">
+        <f>4*0+4.3*1</f>
+        <v>4.3</v>
+      </c>
+      <c r="M3" s="12">
+        <f>0.00154*0+L3*1.28*10^(-4)</f>
+        <v>5.5039999999999993E-4</v>
       </c>
       <c r="N3">
         <v>0.04</v>
@@ -1363,13 +1365,14 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
+      <c r="U3" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V3">
         <v>26</v>
@@ -1550,11 +1553,13 @@
       <c r="K5">
         <v>0.215</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>5.1200000000000009E-4</v>
+      <c r="L5" s="12">
+        <f>4*0+4.5*1</f>
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="12">
+        <f>0.000512*0+L5*(2.57+1.28)*10^(-4)</f>
+        <v>1.7325000000000001E-3</v>
       </c>
       <c r="N5">
         <v>0.04</v>
@@ -1760,11 +1765,13 @@
       <c r="K7">
         <v>0.215</v>
       </c>
-      <c r="L7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M7">
-        <v>1.694E-3</v>
+      <c r="L7" s="12">
+        <f>4*0+4.9*1</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M7" s="12">
+        <f>0.001694*0+L7*(3.85+1.28)*10^(-4)</f>
+        <v>2.5137000000000002E-3</v>
       </c>
       <c r="N7">
         <v>0.04</v>
@@ -1970,11 +1977,13 @@
       <c r="K9">
         <v>0.215</v>
       </c>
-      <c r="L9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M9">
-        <v>2.2572E-3</v>
+      <c r="L9" s="12">
+        <f>4*0+5.45*1</f>
+        <v>5.45</v>
+      </c>
+      <c r="M9" s="12">
+        <f>0.0022572*0+L9*(3.85+1.28)*10^(-4)</f>
+        <v>2.7958500000000003E-3</v>
       </c>
       <c r="N9">
         <v>0.04</v>
@@ -2180,11 +2189,13 @@
       <c r="K11">
         <v>0.215</v>
       </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>2.565E-3</v>
+      <c r="L11" s="12">
+        <f>4*0+5.45*1</f>
+        <v>5.45</v>
+      </c>
+      <c r="M11" s="12">
+        <f>0.002565*0+L11*(3.85+1.28)*10^(-4)</f>
+        <v>2.7958500000000003E-3</v>
       </c>
       <c r="N11">
         <v>0.04</v>
